--- a/Sales Results/SalesResults-2024-01-09.xlsx
+++ b/Sales Results/SalesResults-2024-01-09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ed5500ba6dd79a9/Chicago projects/ExcelConsolidation_Part1/Sales Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{6AA3CD89-A667-4D5E-A9C7-C972F4AAD118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2801EE0-7D06-4573-873D-3400A1BF387A}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{EED0C396-E08F-4D0A-9967-22585E727576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2730ED7F-602E-4A8B-9F89-0860B08DA708}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="3120" windowWidth="11130" windowHeight="7680" xr2:uid="{A2B08BDE-F3F3-4669-91B4-0EB360074214}"/>
+    <workbookView xWindow="7635" yWindow="3120" windowWidth="11130" windowHeight="7680" xr2:uid="{C80D75EB-A857-4823-8DD3-E9A5CF3D3EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -306,7 +306,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5128-4F80-A35A-95DBA9A4557E}"/>
+              <c16:uniqueId val="{00000000-CD15-4828-ACEF-0666B57235DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -381,7 +381,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1463AFB3-BF53-74C4-B749-79B8ADBC08D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC8FC29-7BDC-D144-8246-817113F69A7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="hassan Ahmed" refreshedDate="45300.523209490741" createdVersion="1" refreshedVersion="8" recordCount="41" xr:uid="{C78281A9-0E02-413E-8655-0421461DC8B7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="hassan Ahmed" refreshedDate="45300.557590972225" createdVersion="1" refreshedVersion="8" recordCount="41" xr:uid="{A68BB53F-3DDB-41B4-8CB9-39E5E2D086E6}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D51" sheet="Daily Sales Data"/>
   </cacheSource>
@@ -693,7 +693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C2AD718-26A7-4773-BBEB-3FE71CADE9BE}" name="SalesByStore" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D56B3AA1-E0FD-452E-9C6C-78261DB58FE5}" name="SalesByStore" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
   <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439CE625-276D-476F-AFCC-F960DDA014CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9919AD58-AE67-4055-B611-809D6A7EE040}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1225,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162489AA-173C-478E-96C0-07CAE0C4352E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F3EE31-D98F-4B59-AFE7-BA45A4AC4564}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1820,7 +1820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF0532E-F285-475B-B497-EA3FCEE18FD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711F98CC-7369-4976-89B3-E7597CF3E16F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
